--- a/imms/qac_biomonitoring/Templates/Processing Template Example.xlsx
+++ b/imms/qac_biomonitoring/Templates/Processing Template Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17073\UW\QAC Metabolism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C563CD48-DA67-4CF5-9844-002B549DF303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B642F9-FBC0-4CFC-BBAA-B3685A89B0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21615" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14370" yWindow="90" windowWidth="14940" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E115"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>302.28480000000002</v>
+        <v>302.28429999999997</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>318.27800000000002</v>
+        <v>318.2792</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -703,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>320.2953</v>
+        <v>320.29480000000001</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -743,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>334.27460000000002</v>
+        <v>334.27409999999998</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -763,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1">
-        <v>336.29020000000003</v>
+        <v>336.28969999999998</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -923,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="1">
-        <v>302.28480000000002</v>
+        <v>302.28429999999997</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -1063,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="1">
-        <v>318.27800000000002</v>
+        <v>318.2792</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -1083,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="1">
-        <v>320.2953</v>
+        <v>320.29480000000001</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="1">
-        <v>334.27460000000002</v>
+        <v>334.27409999999998</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="1">
-        <v>336.29020000000003</v>
+        <v>336.28969999999998</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="1">
-        <v>302.28480000000002</v>
+        <v>302.28429999999997</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -1443,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="1">
-        <v>318.27800000000002</v>
+        <v>318.2792</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -1463,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="1">
-        <v>320.2953</v>
+        <v>320.29480000000001</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -1503,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="1">
-        <v>334.27460000000002</v>
+        <v>334.27409999999998</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
@@ -1523,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="1">
-        <v>336.29020000000003</v>
+        <v>336.28969999999998</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="1">
-        <v>302.28480000000002</v>
+        <v>302.28429999999997</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
@@ -1823,7 +1823,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="1">
-        <v>318.27800000000002</v>
+        <v>318.2792</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -1843,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="B72" s="1">
-        <v>320.2953</v>
+        <v>320.29480000000001</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
@@ -1883,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="1">
-        <v>334.27460000000002</v>
+        <v>334.27409999999998</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -1903,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="1">
-        <v>336.29020000000003</v>
+        <v>336.28969999999998</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
@@ -2063,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="1">
-        <v>302.28480000000002</v>
+        <v>302.28429999999997</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
@@ -2203,7 +2203,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="1">
-        <v>318.27800000000002</v>
+        <v>318.2792</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
@@ -2223,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="1">
-        <v>320.2953</v>
+        <v>320.29480000000001</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
@@ -2263,7 +2263,7 @@
         <v>13</v>
       </c>
       <c r="B93" s="1">
-        <v>334.27460000000002</v>
+        <v>334.27409999999998</v>
       </c>
       <c r="C93" t="s">
         <v>15</v>
@@ -2283,7 +2283,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="1">
-        <v>336.29020000000003</v>
+        <v>336.28969999999998</v>
       </c>
       <c r="C94" t="s">
         <v>15</v>
@@ -2443,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="B102" s="1">
-        <v>302.28480000000002</v>
+        <v>302.28429999999997</v>
       </c>
       <c r="C102" t="s">
         <v>15</v>
@@ -2583,7 +2583,7 @@
         <v>14</v>
       </c>
       <c r="B109" s="1">
-        <v>318.27800000000002</v>
+        <v>318.2792</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
@@ -2603,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="B110" s="1">
-        <v>320.2953</v>
+        <v>320.29480000000001</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
@@ -2643,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="B112" s="1">
-        <v>334.27460000000002</v>
+        <v>334.27409999999998</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
@@ -2663,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="B113" s="1">
-        <v>336.29020000000003</v>
+        <v>336.28969999999998</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
